--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Ершов</t>
   </si>
   <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -163,20 +160,26 @@
     <t>Максимальная сумма просрочки, руб.</t>
   </si>
   <si>
-    <t>Бонницин</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
     <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Банницин</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +207,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -246,10 +256,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +561,7 @@
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>26</v>
       </c>
@@ -567,9 +577,10 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -591,21 +602,22 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -616,7 +628,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;33,26*1.1,26*1.1/2)</f>
+        <f>A1*1.1</f>
         <v>28.6</v>
       </c>
       <c r="E3" s="1">
@@ -630,7 +642,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&gt;G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -646,23 +658,26 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,26*1.1,26*1.1/2)</f>
+        <f>D3</f>
         <v>28.6</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
         <v>1987.7</v>
       </c>
       <c r="F4" s="6">
@@ -672,7 +687,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -683,28 +698,31 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>1987.7</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>28.6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1973.4</v>
       </c>
       <c r="F5" s="6">
@@ -714,39 +732,42 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J38" si="4">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="6">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1973.4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1959.1000000000001</v>
       </c>
       <c r="F6" s="6">
@@ -756,39 +777,42 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1959.1000000000001</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1944.8000000000002</v>
       </c>
       <c r="F7" s="6">
@@ -798,39 +822,42 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1944.8000000000002</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1930.5</v>
       </c>
       <c r="F8" s="6">
@@ -840,39 +867,42 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1930.5</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1916.2</v>
       </c>
       <c r="F9" s="6">
@@ -882,39 +912,42 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1916.2</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1901.9</v>
       </c>
       <c r="F10" s="6">
@@ -924,39 +957,42 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1901.9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1887.6000000000001</v>
       </c>
       <c r="F11" s="6">
@@ -966,39 +1002,42 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1887.6000000000001</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1873.3000000000002</v>
       </c>
       <c r="F12" s="6">
@@ -1008,39 +1047,42 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1883.3000000000002</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1859</v>
       </c>
       <c r="F13" s="6">
@@ -1050,39 +1092,42 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1879</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1844.7</v>
       </c>
       <c r="F14" s="6">
@@ -1092,39 +1137,42 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1874.7</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1830.4</v>
       </c>
       <c r="F15" s="6">
@@ -1134,39 +1182,42 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1870.4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1816.1000000000001</v>
       </c>
       <c r="F16" s="6">
@@ -1176,39 +1227,42 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1866.1000000000001</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1801.8000000000002</v>
       </c>
       <c r="F17" s="6">
@@ -1218,39 +1272,42 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1861.8000000000002</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1787.5</v>
       </c>
       <c r="F18" s="6">
@@ -1260,39 +1317,42 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1857.5</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1773.2</v>
       </c>
       <c r="F19" s="6">
@@ -1302,39 +1362,42 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1853.2</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1758.9</v>
       </c>
       <c r="F20" s="6">
@@ -1344,39 +1407,42 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1848.9</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1744.6000000000001</v>
       </c>
       <c r="F21" s="6">
@@ -1386,39 +1452,42 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1844.6000000000001</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1730.3000000000002</v>
       </c>
       <c r="F22" s="6">
@@ -1428,39 +1497,42 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1840.3000000000002</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1716</v>
       </c>
       <c r="F23" s="6">
@@ -1470,39 +1542,42 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1836</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1701.7</v>
       </c>
       <c r="F24" s="6">
@@ -1512,39 +1587,42 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1831.7</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1687.4</v>
       </c>
       <c r="F25" s="6">
@@ -1554,39 +1632,42 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1827.4</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1673.1000000000001</v>
       </c>
       <c r="F26" s="6">
@@ -1596,39 +1677,42 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1823.1000000000001</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1658.8000000000002</v>
       </c>
       <c r="F27" s="6">
@@ -1638,39 +1722,42 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1818.8000000000002</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1644.5</v>
       </c>
       <c r="F28" s="6">
@@ -1680,39 +1767,42 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1814.5</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1630.2</v>
       </c>
       <c r="F29" s="6">
@@ -1722,39 +1812,42 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1810.2</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1615.9</v>
       </c>
       <c r="F30" s="6">
@@ -1764,39 +1857,42 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1805.9</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1601.6000000000001</v>
       </c>
       <c r="F31" s="6">
@@ -1806,39 +1902,42 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1801.6000000000001</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1587.3000000000002</v>
       </c>
       <c r="F32" s="6">
@@ -1848,39 +1947,42 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1797.3000000000002</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1573</v>
       </c>
       <c r="F33" s="6">
@@ -1890,39 +1992,42 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1793</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1558.7</v>
       </c>
       <c r="F34" s="6">
@@ -1932,39 +2037,42 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1788.7</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>D3/2</f>
         <v>14.3</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>772.2</v>
       </c>
       <c r="F35" s="6">
@@ -1974,39 +2082,42 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1012.2</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>23</v>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f>D3/2</f>
         <v>14.3</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>765.05000000000007</v>
       </c>
       <c r="F36" s="6">
@@ -2016,39 +2127,42 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1015.0500000000001</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f>D3/2</f>
         <v>14.3</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>757.90000000000009</v>
       </c>
       <c r="F37" s="6">
@@ -2058,35 +2172,38 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1017.9000000000001</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>40</v>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f>D3/2</f>
         <v>14.3</v>
       </c>
       <c r="E38" s="1">
@@ -2100,24 +2217,25 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1771.5</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2131,14 +2249,15 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUNDDOWN(SUM(K3:K371),0.1)</f>
+        <f>FLOOR(SUM(K3:K371),1)</f>
         <v>64547</v>
       </c>
       <c r="D40" s="1"/>
@@ -2151,11 +2270,12 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="7" t="s">
-        <v>45</v>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2171,11 +2291,12 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="7" t="s">
-        <v>43</v>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2191,11 +2312,12 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="7" t="s">
-        <v>46</v>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>
@@ -2211,8 +2333,9 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2226,8 +2349,9 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2241,8 +2365,9 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2256,8 +2381,9 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2271,8 +2397,9 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2286,8 +2413,9 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2301,8 +2429,9 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2316,8 +2445,9 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2331,6 +2461,39 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -148,9 +144,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -173,6 +166,12 @@
   </si>
   <si>
     <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -542,14 +541,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -584,34 +583,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -622,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -666,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -711,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -756,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -801,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -846,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -891,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -936,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -981,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1026,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1071,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1116,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1161,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1206,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1251,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1296,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1341,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1386,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1431,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1476,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1521,7 +1520,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1566,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1611,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1656,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1701,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1746,7 +1745,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1791,7 +1790,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1836,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1881,7 +1880,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1926,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1971,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2016,7 +2015,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2061,7 +2060,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2106,7 +2105,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2151,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2196,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2254,7 +2253,7 @@
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K371),1)</f>
@@ -2275,7 +2274,7 @@
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2296,7 +2295,7 @@
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2317,7 +2316,7 @@
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>
@@ -2500,18 +2499,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -156,9 +156,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Мохамед</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -2105,7 +2105,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2150,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2195,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2295,7 +2295,7 @@
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -150,9 +150,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -601,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -2105,7 +2105,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2150,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2195,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2295,7 +2295,7 @@
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2316,11 +2316,11 @@
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(J3:J38)</f>
-        <v>270</v>
+        <f>MAX(K3:K38)</f>
+        <v>2002</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>

--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
@@ -680,9 +680,11 @@
         <v>1987.7</v>
       </c>
       <c r="F4" s="6">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -690,6 +692,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -725,9 +728,11 @@
         <v>1973.4</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="6">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -735,10 +740,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J38" si="6">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -770,9 +776,11 @@
         <v>1959.1000000000001</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="6">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -780,10 +788,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -815,9 +824,11 @@
         <v>1944.8000000000002</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="6">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -825,10 +836,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -860,9 +872,11 @@
         <v>1930.5</v>
       </c>
       <c r="F8" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="6">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -870,10 +884,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -905,9 +920,11 @@
         <v>1916.2</v>
       </c>
       <c r="F9" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="6">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -915,10 +932,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -950,9 +968,11 @@
         <v>1901.9</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -960,10 +980,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -995,9 +1016,11 @@
         <v>1887.6000000000001</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="6">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1005,10 +1028,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -1040,9 +1064,11 @@
         <v>1873.3000000000002</v>
       </c>
       <c r="F12" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="6">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1050,10 +1076,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
@@ -1085,9 +1112,11 @@
         <v>1859</v>
       </c>
       <c r="F13" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="6">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1095,10 +1124,11 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
@@ -1130,9 +1160,11 @@
         <v>1844.7</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="6">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1140,10 +1172,11 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
@@ -1175,9 +1208,11 @@
         <v>1830.4</v>
       </c>
       <c r="F15" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="6">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1185,10 +1220,11 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
@@ -1220,9 +1256,11 @@
         <v>1816.1000000000001</v>
       </c>
       <c r="F16" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="6">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1230,10 +1268,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
@@ -1265,9 +1304,11 @@
         <v>1801.8000000000002</v>
       </c>
       <c r="F17" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="6">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1275,10 +1316,11 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
@@ -1310,9 +1352,11 @@
         <v>1787.5</v>
       </c>
       <c r="F18" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="6">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1320,10 +1364,11 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
@@ -1355,9 +1400,11 @@
         <v>1773.2</v>
       </c>
       <c r="F19" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="6">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1365,10 +1412,11 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
@@ -1400,9 +1448,11 @@
         <v>1758.9</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="6">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1410,10 +1460,11 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
@@ -1445,9 +1496,11 @@
         <v>1744.6000000000001</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="6">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1455,10 +1508,11 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
@@ -1490,9 +1544,11 @@
         <v>1730.3000000000002</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="6">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1500,10 +1556,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
@@ -1535,9 +1592,11 @@
         <v>1716</v>
       </c>
       <c r="F23" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="6">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1545,10 +1604,11 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
@@ -1580,9 +1640,11 @@
         <v>1701.7</v>
       </c>
       <c r="F24" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="6">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1590,10 +1652,11 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
@@ -1625,9 +1688,11 @@
         <v>1687.4</v>
       </c>
       <c r="F25" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1635,10 +1700,11 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
@@ -1670,9 +1736,11 @@
         <v>1673.1000000000001</v>
       </c>
       <c r="F26" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="6">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1680,10 +1748,11 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
@@ -1715,9 +1784,11 @@
         <v>1658.8000000000002</v>
       </c>
       <c r="F27" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="6">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1725,10 +1796,11 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
@@ -1760,9 +1832,11 @@
         <v>1644.5</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="6">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1770,10 +1844,11 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
@@ -1805,9 +1880,11 @@
         <v>1630.2</v>
       </c>
       <c r="F29" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="6">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1815,10 +1892,11 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
@@ -1850,9 +1928,11 @@
         <v>1615.9</v>
       </c>
       <c r="F30" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="6">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1860,10 +1940,11 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
@@ -1895,9 +1976,11 @@
         <v>1601.6000000000001</v>
       </c>
       <c r="F31" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="6">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1905,10 +1988,11 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
@@ -1940,9 +2024,11 @@
         <v>1587.3000000000002</v>
       </c>
       <c r="F32" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="6">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1950,10 +2036,11 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
@@ -1985,9 +2072,11 @@
         <v>1573</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="6">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1995,10 +2084,11 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
@@ -2030,9 +2120,11 @@
         <v>1558.7</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="6">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2040,10 +2132,11 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
@@ -2075,9 +2168,11 @@
         <v>772.2</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="6">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2085,10 +2180,11 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
@@ -2120,9 +2216,11 @@
         <v>765.05000000000007</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="6">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2130,10 +2228,11 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
@@ -2165,9 +2264,11 @@
         <v>757.90000000000009</v>
       </c>
       <c r="F37" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="6">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2175,10 +2276,11 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
@@ -2206,13 +2308,15 @@
         <v>14.3</v>
       </c>
       <c r="E38" s="1">
-        <f>C38*D32</f>
-        <v>1501.5</v>
+        <f>C38*D38</f>
+        <v>750.75</v>
       </c>
       <c r="F38" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="6">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2220,15 +2324,16 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="2"/>
-        <v>1771.5</v>
+        <v>1020.75</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2257,7 +2362,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K371),1)</f>
-        <v>64547</v>
+        <v>63797</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(SUM(K3:K371),1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>63797</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8947EB-485A-48FF-ADF8-753F66090564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317820A-C734-4B9E-9986-F347C3AF3373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -61,6 +62,9 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -73,6 +77,69 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
+    <t>Аминова Милена Ленаровна</t>
+  </si>
+  <si>
+    <t>Байрамшин Арсений Вадимович</t>
+  </si>
+  <si>
+    <t>Башкиро́ва Анна Павловна</t>
+  </si>
+  <si>
+    <t>Гагаркин Данил Андреевич</t>
+  </si>
+  <si>
+    <t>Гайнуллина Алсу Ильнуровна</t>
+  </si>
+  <si>
+    <t>Галиаскаров Амир Рамилевич</t>
+  </si>
+  <si>
+    <t>Гареева Софья Тимуровна</t>
+  </si>
+  <si>
+    <t>Дуболазов Всеволод Вячеславович</t>
+  </si>
+  <si>
+    <t>Лучин Максим Денисович</t>
+  </si>
+  <si>
+    <t>Ма́тижева Анна Петровна</t>
+  </si>
+  <si>
+    <t>Мифтахов Карим Сиренович</t>
+  </si>
+  <si>
+    <t>Нугъманов Айнур Фаннурович</t>
+  </si>
+  <si>
+    <t>Проскура Данил Радимович</t>
+  </si>
+  <si>
+    <t>Рафиков Расул Рустамович</t>
+  </si>
+  <si>
+    <t>Рахматулов Амир Ильнурович</t>
+  </si>
+  <si>
+    <t>Смирнова Анастасия Николаевна</t>
+  </si>
+  <si>
+    <t>Соловьев Леонид Александрович</t>
+  </si>
+  <si>
+    <t>Спирина Анастасия Игоревна</t>
+  </si>
+  <si>
+    <t>Хайруллин Камиль Назирович</t>
+  </si>
+  <si>
+    <t>Харисов Амир Радикович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -127,17 +194,62 @@
     <t>Спирина</t>
   </si>
   <si>
-    <t>Хайруллин</t>
-  </si>
-  <si>
-    <t>Харисов</t>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Куропаткин 16</t>
+  </si>
+  <si>
+    <t>Куропаткин 17</t>
+  </si>
+  <si>
+    <t>Куропаткин 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +285,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -188,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,11 +314,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,12 +345,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,14 +671,14 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="8"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -563,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -573,14 +709,14 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -593,10 +729,10 @@
         <f>C3*D3</f>
         <v>2002</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -616,15 +752,15 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="8"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -635,19 +771,19 @@
         <v>28.6</v>
       </c>
       <c r="E4" s="1">
-        <f>C4*D4</f>
+        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
         <v>1987.7</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H22" si="0">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -659,86 +795,86 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K22" si="1">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>1987.7</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="8"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A22" si="2">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C22" si="3">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D22" si="4">D4</f>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>28.6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E22" si="5">C5*D5</f>
+        <f t="shared" si="0"/>
         <v>1973.4</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" ref="F5:F22" si="6">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G22" si="7">G4+1</f>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I22" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J22" si="9">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1973.4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="8"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1959.1000000000001</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
@@ -755,43 +891,43 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1959.1000000000001</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1944.8000000000002</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -803,43 +939,43 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1944.8000000000002</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1930.5</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -851,43 +987,43 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1930.5</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1916.2</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -899,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1916.2</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1901.9</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -947,43 +1083,43 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1901.9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
+      <c r="B11" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1887.6000000000001</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -995,43 +1131,43 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1887.6000000000001</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1873.3000000000002</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1043,43 +1179,43 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1883.3000000000002</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1859</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1091,43 +1227,43 @@
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1879</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1844.7</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1139,43 +1275,43 @@
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1874.7</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
+      <c r="B15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1830.4</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1187,43 +1323,43 @@
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1870.4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1816.1000000000001</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1235,43 +1371,43 @@
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1866.1000000000001</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1801.8000000000002</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1283,43 +1419,43 @@
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1861.8000000000002</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
+      <c r="B18" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1787.5</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1331,43 +1467,43 @@
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1857.5</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="8"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1773.2</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1379,43 +1515,43 @@
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1853.2</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="8"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
+      <c r="B20" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1758.9</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1427,43 +1563,43 @@
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1848.9</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="8"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1744.6000000000001</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1475,43 +1611,43 @@
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1844.6000000000001</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="8"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.6</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1730.3000000000002</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1523,288 +1659,780 @@
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1840.3000000000002</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="A23" s="4">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1716</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="7"/>
+        <v>44825</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>1836</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
+      <c r="A24" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="1">
-        <f>FLOOR(SUM(K3:K22),1)</f>
-        <v>37983</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+        <f t="shared" si="4"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1701.7</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="7"/>
+        <v>44826</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>1831.7</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="8"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
+      <c r="A25" s="4">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="1">
-        <f>AVERAGE(C3:C22)</f>
-        <v>65.25</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1687.4</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="7"/>
+        <v>44827</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>1827.4</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="8"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="1">
-        <f>MAX(H3:H22)</f>
-        <v>11</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+        <f t="shared" si="4"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1673.1000000000001</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="7"/>
+        <v>44828</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>1823.1000000000001</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
+      <c r="A27" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="1">
-        <f>MAX(K3:K22)</f>
-        <v>2002</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>1658.8000000000002</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="7"/>
+        <v>44829</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>1818.8000000000002</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="A28" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>1644.5</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="7"/>
+        <v>44830</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>1814.5</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="8"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="A29" s="4">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1630.2</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="7"/>
+        <v>44831</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>1810.2</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="8"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="4">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="4"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>1615.9</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="7"/>
+        <v>44832</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>1805.9</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="8"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="A31" s="4">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1601.6000000000001</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="7"/>
+        <v>44833</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>1801.6000000000001</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="8"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="A32" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="4"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>1587.3000000000002</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="7"/>
+        <v>44834</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>1797.3000000000002</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="A33" s="4">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>1573</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="7"/>
+        <v>44835</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>1793</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="8"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="A34" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="4"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="5"/>
+        <v>28.6</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1558.7</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="7"/>
+        <v>44836</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>1788.7</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="8"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="A35" s="4">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D3/2</f>
+        <v>14.3</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>772.2</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="7"/>
+        <v>44837</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>1012.2</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="A36" s="4">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="4"/>
+        <v>53.5</v>
+      </c>
+      <c r="D36" s="1">
+        <f>D3/2</f>
+        <v>14.3</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>765.05000000000007</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="7"/>
+        <v>44838</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>1015.0500000000001</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="8"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="A37" s="4">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
+        <f>D3/2</f>
+        <v>14.3</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>757.90000000000009</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="7"/>
+        <v>44839</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>1017.9000000000001</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="8"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="A38" s="4">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="1">
+        <f>D3/2</f>
+        <v>14.3</v>
+      </c>
+      <c r="E38" s="1">
+        <f>C38*D38</f>
+        <v>750.75</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="7"/>
+        <v>44840</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>1020.75</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="8"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1812,36 +2440,46 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="8"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>63797</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="8"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1852,12 +2490,17 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="8"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1868,12 +2511,17 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
+        <f>MAX(K3:K38)</f>
+        <v>2002</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1884,7 +2532,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="8"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -1900,7 +2548,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="8"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -1916,7 +2564,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -1932,7 +2580,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="8"/>
+      <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -1948,7 +2596,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="8"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -1964,7 +2612,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="8"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -1980,7 +2628,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="8"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -1996,7 +2644,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="8"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2012,43 +2660,172 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="8"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB641E2-04DB-4AE0-84EB-87F30A92806E}">
+  <dimension ref="C3:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="e">
+        <f>пс</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LR3/table_1_26.xlsx
+++ b/LR3/table_1_26.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317820A-C734-4B9E-9986-F347C3AF3373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3FEA6-71D2-4D88-A42A-6E1EA09E4F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Спирина</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Куропаткин 3</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Куропаткин 18</t>
+  </si>
+  <si>
+    <t>Харисов</t>
+  </si>
+  <si>
+    <t>Хайруллин</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -904,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -1000,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1288,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1432,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1528,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1576,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1624,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1672,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1720,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1768,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1816,7 +1816,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1864,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1912,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -2008,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -2056,7 +2056,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -2104,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -2152,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2200,7 +2200,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2248,7 +2248,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2296,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2344,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2392,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2495,7 +2495,7 @@
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2516,7 +2516,7 @@
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2720,10 +2720,10 @@
     <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="e">
         <f>пс</f>
@@ -2732,97 +2732,97 @@
     </row>
     <row r="5" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
